--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Versions</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>On Foot &lt;-&gt; In Ship console messages + stable</t>
+  </si>
+  <si>
+    <t>GALMAP OPEN/CLOSE</t>
+  </si>
+  <si>
+    <t>SYSMAP OPEN/CLOSE</t>
+  </si>
+  <si>
+    <t>DumpFlags via U+FuelFlowR</t>
+  </si>
+  <si>
+    <t>Print State via D+FuelFlowR</t>
   </si>
 </sst>
 </file>
@@ -418,6 +430,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,49 +457,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -764,7 +776,7 @@
   <dimension ref="B1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:H24"/>
+      <selection activeCell="C25" sqref="C25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,12 +789,12 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -800,7 +812,7 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -810,352 +822,360 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="21"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="21"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="21"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="21"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="21"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="21"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="21"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="21"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="21"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="21"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="21"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="21"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="21"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="21"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="21"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="21"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="21"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="21"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="21"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="21"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="21"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="21"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="21"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="21"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="21"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="21"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="21"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="21"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="22"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
@@ -1165,11 +1185,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C26:H26"/>
@@ -1177,9 +1192,12 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C25:H25"/>
@@ -1192,16 +1210,18 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C12:H12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Versions</t>
   </si>
@@ -69,9 +69,6 @@
     <t>FSS EXIT via D+H1U (backspace)</t>
   </si>
   <si>
-    <t>SAA EXIT via U+H1U (RSHIFT+/)</t>
-  </si>
-  <si>
     <t>SAA EXIT via D+H1U (backspace)</t>
   </si>
   <si>
@@ -103,13 +100,19 @@
   </si>
   <si>
     <t>Print State via D+FuelFlowR</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>SAA EXIT via U+H1U (RSHIFT+/) - changes HUD Mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +120,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,7 +143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -445,9 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,6 +504,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -776,7 +801,7 @@
   <dimension ref="B1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,12 +814,12 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -815,373 +840,401 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -1198,6 +1251,8 @@
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C25:H25"/>
@@ -1210,8 +1265,6 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C12:H12"/>
